--- a/Defected_File.xlsx
+++ b/Defected_File.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sample date </t>
+          <t>Sample date</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
